--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kng1-Rxfp4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.895535666666667</v>
+        <v>3.156260333333333</v>
       </c>
       <c r="N2">
-        <v>14.686607</v>
+        <v>9.468781</v>
       </c>
       <c r="O2">
-        <v>0.3381434238933606</v>
+        <v>0.3177865155521988</v>
       </c>
       <c r="P2">
-        <v>0.3381434238933606</v>
+        <v>0.3177865155521988</v>
       </c>
       <c r="Q2">
-        <v>2.221962882553556</v>
+        <v>1.432548710878444</v>
       </c>
       <c r="R2">
-        <v>19.997665942982</v>
+        <v>12.892938397906</v>
       </c>
       <c r="S2">
-        <v>0.3381434238933606</v>
+        <v>0.3177865155521988</v>
       </c>
       <c r="T2">
-        <v>0.3381434238933606</v>
+        <v>0.3177865155521988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.821123666666666</v>
+        <v>2.821123666666667</v>
       </c>
       <c r="N3">
-        <v>8.463370999999999</v>
+        <v>8.463371</v>
       </c>
       <c r="O3">
-        <v>0.1948600686067091</v>
+        <v>0.2840434454990065</v>
       </c>
       <c r="P3">
-        <v>0.1948600686067091</v>
+        <v>0.2840434454990065</v>
       </c>
       <c r="Q3">
         <v>1.280438444582889</v>
@@ -632,10 +632,10 @@
         <v>11.523946001246</v>
       </c>
       <c r="S3">
-        <v>0.1948600686067091</v>
+        <v>0.2840434454990065</v>
       </c>
       <c r="T3">
-        <v>0.1948600686067091</v>
+        <v>0.2840434454990065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.761030666666667</v>
+        <v>3.954630666666667</v>
       </c>
       <c r="N4">
-        <v>20.283092</v>
+        <v>11.863892</v>
       </c>
       <c r="O4">
-        <v>0.4669965074999304</v>
+        <v>0.3981700389487947</v>
       </c>
       <c r="P4">
-        <v>0.4669965074999303</v>
+        <v>0.3981700389487947</v>
       </c>
       <c r="Q4">
-        <v>3.068665047510222</v>
+        <v>1.794909312043556</v>
       </c>
       <c r="R4">
-        <v>27.617985427592</v>
+        <v>16.154183808392</v>
       </c>
       <c r="S4">
-        <v>0.4669965074999304</v>
+        <v>0.3981700389487947</v>
       </c>
       <c r="T4">
-        <v>0.4669965074999303</v>
+        <v>0.3981700389487947</v>
       </c>
     </row>
   </sheetData>
